--- a/AutoChessServer/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/AutoChessServer/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyAutoChess\AutoChessServer\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751175F7-0624-4066-B5FF-449ACDE90A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B59631-8150-4CA3-841E-956A0A6CEB80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1334,7 +1334,7 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>28</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>0</v>
